--- a/交流管理/项目日报/李文光-每日要做的事.xlsx
+++ b/交流管理/项目日报/李文光-每日要做的事.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/交流管理/项目日报/李文光-每日要做的事.xlsx
+++ b/交流管理/项目日报/李文光-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,23 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户中心系统-支持saml2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究smal2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助解决吴老师上线uc 出现的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,7 +447,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -491,11 +479,8 @@
       <c r="A2" s="1">
         <v>43000</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -505,22 +490,16 @@
       <c r="A3" s="1">
         <v>42999</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>42999</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>

--- a/交流管理/项目日报/李文光-每日要做的事.xlsx
+++ b/交流管理/项目日报/李文光-每日要做的事.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,19 +106,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户中心系统支持https访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务分发较晚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
+    <t>sso，针对不同客户端，返回不同的用户字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决SSO重定向循环问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,12 +210,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -524,7 +519,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -538,53 +533,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
-        <v>43024</v>
+      <c r="A2" s="1">
+        <v>43031</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
-        <v>0.1</v>
+      <c r="E2" s="4">
+        <v>0.15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>43031</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3">
+        <v>440</v>
+      </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>

--- a/交流管理/项目日报/李文光-每日要做的事.xlsx
+++ b/交流管理/项目日报/李文光-每日要做的事.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,7 +110,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>解决SSO重定向循环问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sso，针对不同客户端，返回不同的用户字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sso，针对不同客户端，返回不同的用户字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -519,7 +531,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -557,7 +569,7 @@
         <v>43031</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>442</v>
@@ -577,7 +589,7 @@
         <v>43031</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>440</v>
@@ -589,9 +601,39 @@
         <v>0.15</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>442</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>440</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="E6" s="2"/>

--- a/交流管理/项目日报/李文光-每日要做的事.xlsx
+++ b/交流管理/项目日报/李文光-每日要做的事.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>sso，针对不同客户端，返回不同的用户字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,7 +535,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -606,13 +610,13 @@
         <v>43032</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>442</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>0.4</v>
@@ -623,23 +627,51 @@
         <v>43032</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>440</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="E6" s="2"/>
+      <c r="A6" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>442</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="E7" s="2"/>
+      <c r="A7" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>440</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="E8" s="2"/>

--- a/交流管理/项目日报/李文光-每日要做的事.xlsx
+++ b/交流管理/项目日报/李文光-每日要做的事.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sso，针对不同客户端，返回不同的用户字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,7 +134,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>解决SSO重定向循环问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sso获取用户信息接口，启用加签验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -644,13 +656,13 @@
         <v>43033</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>442</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>0.6</v>
@@ -661,23 +673,68 @@
         <v>43033</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>440</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="E8" s="2"/>
+      <c r="A8" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>442</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>440</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>445</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/李文光-每日要做的事.xlsx
+++ b/交流管理/项目日报/李文光-每日要做的事.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,51 +98,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PMP编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试上周任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMP编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务分发较晚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决SSO重定向循环问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sso，针对不同客户端，返回不同的用户字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sso，针对不同客户端，返回不同的用户字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决SSO重定向循环问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sso获取用户信息接口，启用加签验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,13 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -544,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -561,179 +523,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>43031</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>442</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>43038</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>440</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>43031</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.15</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>43032</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>43032</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>440</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>43033</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>442</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>43033</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>440</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>43034</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>442</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>43034</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>440</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>43034</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>445</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/李文光-每日要做的事.xlsx
+++ b/交流管理/项目日报/李文光-每日要做的事.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>测试上周任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按吴老师的要求更改任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -506,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -576,6 +584,45 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>43039</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>440</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6">
+        <v>442</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7">
+        <v>445</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
